--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N2">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O2">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P2">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q2">
-        <v>27.17360131481835</v>
+        <v>124.4055081354645</v>
       </c>
       <c r="R2">
-        <v>27.17360131481835</v>
+        <v>1119.64957321918</v>
       </c>
       <c r="S2">
-        <v>0.0001882447281905417</v>
+        <v>0.0006384010358953297</v>
       </c>
       <c r="T2">
-        <v>0.0001882447281905417</v>
+        <v>0.0006384010358953296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N3">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O3">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P3">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q3">
-        <v>97.3825206594109</v>
+        <v>176.5312432876476</v>
       </c>
       <c r="R3">
-        <v>97.3825206594109</v>
+        <v>1588.781189588828</v>
       </c>
       <c r="S3">
-        <v>0.0006746159965938678</v>
+        <v>0.0009058901834154222</v>
       </c>
       <c r="T3">
-        <v>0.0006746159965938678</v>
+        <v>0.0009058901834154219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N4">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O4">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P4">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q4">
-        <v>522.1128727150108</v>
+        <v>1271.278611562515</v>
       </c>
       <c r="R4">
-        <v>522.1128727150108</v>
+        <v>11441.50750406263</v>
       </c>
       <c r="S4">
-        <v>0.003616929337791645</v>
+        <v>0.006523711005218153</v>
       </c>
       <c r="T4">
-        <v>0.003616929337791645</v>
+        <v>0.00652371100521815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N5">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O5">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P5">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q5">
-        <v>671.1239219452286</v>
+        <v>1206.458785257771</v>
       </c>
       <c r="R5">
-        <v>671.1239219452286</v>
+        <v>10858.12906731994</v>
       </c>
       <c r="S5">
-        <v>0.004649201215734935</v>
+        <v>0.00619108068297837</v>
       </c>
       <c r="T5">
-        <v>0.004649201215734935</v>
+        <v>0.006191080682978369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N6">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O6">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P6">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q6">
-        <v>976.702396621749</v>
+        <v>1845.219109830743</v>
       </c>
       <c r="R6">
-        <v>976.702396621749</v>
+        <v>16606.97198847668</v>
       </c>
       <c r="S6">
-        <v>0.006766091658040537</v>
+        <v>0.009468952049029034</v>
       </c>
       <c r="T6">
-        <v>0.006766091658040537</v>
+        <v>0.009468952049029034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N7">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O7">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P7">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q7">
-        <v>78.02058402896927</v>
+        <v>148.2926600342631</v>
       </c>
       <c r="R7">
-        <v>78.02058402896927</v>
+        <v>1334.633940308368</v>
       </c>
       <c r="S7">
-        <v>0.0005404864619762977</v>
+        <v>0.0007609806768239047</v>
       </c>
       <c r="T7">
-        <v>0.0005404864619762977</v>
+        <v>0.0007609806768239046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N8">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O8">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P8">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q8">
-        <v>1250.900917782273</v>
+        <v>3329.352268047666</v>
       </c>
       <c r="R8">
-        <v>1250.900917782273</v>
+        <v>29964.170412429</v>
       </c>
       <c r="S8">
-        <v>0.008665597928413465</v>
+        <v>0.01708495040643773</v>
       </c>
       <c r="T8">
-        <v>0.008665597928413465</v>
+        <v>0.01708495040643773</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N9">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O9">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P9">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q9">
-        <v>4482.875974278002</v>
+        <v>4724.346245031392</v>
       </c>
       <c r="R9">
-        <v>4482.875974278002</v>
+        <v>42519.11620528252</v>
       </c>
       <c r="S9">
-        <v>0.03105505816152855</v>
+        <v>0.0242435209015996</v>
       </c>
       <c r="T9">
-        <v>0.03105505816152855</v>
+        <v>0.0242435209015996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N10">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O10">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P10">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q10">
-        <v>24034.7778749882</v>
+        <v>34022.08143482974</v>
       </c>
       <c r="R10">
-        <v>24034.7778749882</v>
+        <v>306198.7329134677</v>
       </c>
       <c r="S10">
-        <v>0.1665005744280916</v>
+        <v>0.1745881863016876</v>
       </c>
       <c r="T10">
-        <v>0.1665005744280916</v>
+        <v>0.1745881863016875</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N11">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O11">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P11">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q11">
-        <v>30894.30510813901</v>
+        <v>32287.36695991148</v>
       </c>
       <c r="R11">
-        <v>30894.30510813901</v>
+        <v>290586.3026392033</v>
       </c>
       <c r="S11">
-        <v>0.2140198496452464</v>
+        <v>0.1656863013741765</v>
       </c>
       <c r="T11">
-        <v>0.2140198496452464</v>
+        <v>0.1656863013741765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N12">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O12">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P12">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q12">
-        <v>44961.20739314892</v>
+        <v>49381.93268476812</v>
       </c>
       <c r="R12">
-        <v>44961.20739314892</v>
+        <v>444437.3941629131</v>
       </c>
       <c r="S12">
-        <v>0.3114681107883353</v>
+        <v>0.2534090126149519</v>
       </c>
       <c r="T12">
-        <v>0.3114681107883353</v>
+        <v>0.2534090126149519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N13">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O13">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P13">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q13">
-        <v>3591.574743334644</v>
+        <v>3968.622542679445</v>
       </c>
       <c r="R13">
-        <v>3591.574743334644</v>
+        <v>35717.60288411501</v>
       </c>
       <c r="S13">
-        <v>0.02488058183757762</v>
+        <v>0.02036543863930303</v>
       </c>
       <c r="T13">
-        <v>0.02488058183757762</v>
+        <v>0.02036543863930303</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N14">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O14">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P14">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q14">
-        <v>84.15333517056449</v>
+        <v>716.694472309892</v>
       </c>
       <c r="R14">
-        <v>84.15333517056449</v>
+        <v>6450.250250789029</v>
       </c>
       <c r="S14">
-        <v>0.0005829710063815428</v>
+        <v>0.003677799322557975</v>
       </c>
       <c r="T14">
-        <v>0.0005829710063815428</v>
+        <v>0.003677799322557975</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N15">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O15">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P15">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q15">
-        <v>301.5818111799882</v>
+        <v>1016.98846096496</v>
       </c>
       <c r="R15">
-        <v>301.5818111799882</v>
+        <v>9152.896148684637</v>
       </c>
       <c r="S15">
-        <v>0.002089203614017462</v>
+        <v>0.005218792131508087</v>
       </c>
       <c r="T15">
-        <v>0.002089203614017462</v>
+        <v>0.005218792131508086</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N16">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O16">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P16">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q16">
-        <v>1616.920005023129</v>
+        <v>7323.778242041639</v>
       </c>
       <c r="R16">
-        <v>1616.920005023129</v>
+        <v>65914.00417837476</v>
       </c>
       <c r="S16">
-        <v>0.01120118983586637</v>
+        <v>0.03758280229277249</v>
       </c>
       <c r="T16">
-        <v>0.01120118983586637</v>
+        <v>0.03758280229277247</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N17">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O17">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P17">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q17">
-        <v>2078.38908395415</v>
+        <v>6950.354171797811</v>
       </c>
       <c r="R17">
-        <v>2078.38908395415</v>
+        <v>62553.18754618031</v>
       </c>
       <c r="S17">
-        <v>0.01439801017356441</v>
+        <v>0.03566653413998037</v>
       </c>
       <c r="T17">
-        <v>0.01439801017356441</v>
+        <v>0.03566653413998037</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N18">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O18">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P18">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q18">
-        <v>3024.728419047723</v>
+        <v>10630.22334008118</v>
       </c>
       <c r="R18">
-        <v>3024.728419047723</v>
+        <v>95672.01006073059</v>
       </c>
       <c r="S18">
-        <v>0.02095376216413927</v>
+        <v>0.05455020194698229</v>
       </c>
       <c r="T18">
-        <v>0.02095376216413927</v>
+        <v>0.05455020194698229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N19">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O19">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P19">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q19">
-        <v>241.6202505485582</v>
+        <v>854.3072676087473</v>
       </c>
       <c r="R19">
-        <v>241.6202505485582</v>
+        <v>7688.765408478725</v>
       </c>
       <c r="S19">
-        <v>0.00167382077417323</v>
+        <v>0.00438397505696018</v>
       </c>
       <c r="T19">
-        <v>0.00167382077417323</v>
+        <v>0.00438397505696018</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N20">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O20">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P20">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q20">
-        <v>101.3466365732191</v>
+        <v>265.7584863379378</v>
       </c>
       <c r="R20">
-        <v>101.3466365732191</v>
+        <v>2391.82637704144</v>
       </c>
       <c r="S20">
-        <v>0.0007020773519757067</v>
+        <v>0.00136376994490768</v>
       </c>
       <c r="T20">
-        <v>0.0007020773519757067</v>
+        <v>0.00136376994490768</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N21">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O21">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P21">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q21">
-        <v>363.1977526832752</v>
+        <v>377.1109230661582</v>
       </c>
       <c r="R21">
-        <v>363.1977526832752</v>
+        <v>3393.998307595424</v>
       </c>
       <c r="S21">
-        <v>0.002516047153308129</v>
+        <v>0.001935187658015353</v>
       </c>
       <c r="T21">
-        <v>0.002516047153308129</v>
+        <v>0.001935187658015353</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N22">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O22">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P22">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q22">
-        <v>1947.271653404006</v>
+        <v>2715.74052135025</v>
       </c>
       <c r="R22">
-        <v>1947.271653404006</v>
+        <v>24441.66469215225</v>
       </c>
       <c r="S22">
-        <v>0.0134896960789768</v>
+        <v>0.01393613183240305</v>
       </c>
       <c r="T22">
-        <v>0.0134896960789768</v>
+        <v>0.01393613183240305</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N23">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O23">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P23">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q23">
-        <v>2503.023115154261</v>
+        <v>2577.27061610555</v>
       </c>
       <c r="R23">
-        <v>2503.023115154261</v>
+        <v>23195.43554494995</v>
       </c>
       <c r="S23">
-        <v>0.01733965625343564</v>
+        <v>0.01322555774068126</v>
       </c>
       <c r="T23">
-        <v>0.01733965625343564</v>
+        <v>0.01322555774068126</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N24">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O24">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P24">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q24">
-        <v>3642.708291912621</v>
+        <v>3941.808083420874</v>
       </c>
       <c r="R24">
-        <v>3642.708291912621</v>
+        <v>35476.27275078787</v>
       </c>
       <c r="S24">
-        <v>0.02523480875222033</v>
+        <v>0.02022783718721134</v>
       </c>
       <c r="T24">
-        <v>0.02523480875222033</v>
+        <v>0.02022783718721134</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N25">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O25">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P25">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q25">
-        <v>290.9854929866188</v>
+        <v>316.7868807128604</v>
       </c>
       <c r="R25">
-        <v>290.9854929866188</v>
+        <v>2851.081926415744</v>
       </c>
       <c r="S25">
-        <v>0.002015797773730715</v>
+        <v>0.001625627963232348</v>
       </c>
       <c r="T25">
-        <v>0.002015797773730715</v>
+        <v>0.001625627963232347</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N26">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O26">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P26">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q26">
-        <v>93.93005797645012</v>
+        <v>290.1845451298794</v>
       </c>
       <c r="R26">
-        <v>93.93005797645012</v>
+        <v>2611.660906168915</v>
       </c>
       <c r="S26">
-        <v>0.0006506991115327946</v>
+        <v>0.001489115047944726</v>
       </c>
       <c r="T26">
-        <v>0.0006506991115327946</v>
+        <v>0.001489115047944726</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N27">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O27">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P27">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q27">
-        <v>336.6188274221563</v>
+        <v>411.7714665725065</v>
       </c>
       <c r="R27">
-        <v>336.6188274221563</v>
+        <v>3705.943199152559</v>
       </c>
       <c r="S27">
-        <v>0.002331922034837077</v>
+        <v>0.002113052185163569</v>
       </c>
       <c r="T27">
-        <v>0.002331922034837077</v>
+        <v>0.002113052185163569</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N28">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O28">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P28">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q28">
-        <v>1804.769704103526</v>
+        <v>2965.346238752661</v>
       </c>
       <c r="R28">
-        <v>1804.769704103526</v>
+        <v>26688.11614877394</v>
       </c>
       <c r="S28">
-        <v>0.01250251589619908</v>
+        <v>0.01521701200357346</v>
       </c>
       <c r="T28">
-        <v>0.01250251589619908</v>
+        <v>0.01521701200357346</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N29">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O29">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P29">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q29">
-        <v>2319.851099873227</v>
+        <v>2814.149462230853</v>
       </c>
       <c r="R29">
-        <v>2319.851099873227</v>
+        <v>25327.34516007768</v>
       </c>
       <c r="S29">
-        <v>0.01607073477964156</v>
+        <v>0.01444112852218892</v>
       </c>
       <c r="T29">
-        <v>0.01607073477964156</v>
+        <v>0.01444112852218892</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N30">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O30">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P30">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q30">
-        <v>3376.133758553009</v>
+        <v>4304.10257613467</v>
       </c>
       <c r="R30">
-        <v>3376.133758553009</v>
+        <v>38736.92318521203</v>
       </c>
       <c r="S30">
-        <v>0.02338811754653771</v>
+        <v>0.02208699264514983</v>
       </c>
       <c r="T30">
-        <v>0.02338811754653771</v>
+        <v>0.02208699264514983</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N31">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O31">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P31">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q31">
-        <v>269.6910835002648</v>
+        <v>345.9029969258671</v>
       </c>
       <c r="R31">
-        <v>269.6910835002648</v>
+        <v>3113.126972332804</v>
       </c>
       <c r="S31">
-        <v>0.001868281061488718</v>
+        <v>0.001775040630165006</v>
       </c>
       <c r="T31">
-        <v>0.001868281061488718</v>
+        <v>0.001775040630165006</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H32">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N32">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O32">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P32">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q32">
-        <v>95.83648587679468</v>
+        <v>353.6581610599901</v>
       </c>
       <c r="R32">
-        <v>95.83648587679468</v>
+        <v>3182.923449539911</v>
       </c>
       <c r="S32">
-        <v>0.0006639058631060403</v>
+        <v>0.001814837138301698</v>
       </c>
       <c r="T32">
-        <v>0.0006639058631060403</v>
+        <v>0.001814837138301699</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H33">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N33">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O33">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P33">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q33">
-        <v>343.4509271589601</v>
+        <v>501.840439434254</v>
       </c>
       <c r="R33">
-        <v>343.4509271589601</v>
+        <v>4516.563954908286</v>
       </c>
       <c r="S33">
-        <v>0.002379251306471896</v>
+        <v>0.002575251379063861</v>
       </c>
       <c r="T33">
-        <v>0.002379251306471896</v>
+        <v>0.002575251379063861</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H34">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N34">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O34">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P34">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q34">
-        <v>1841.399760463783</v>
+        <v>3613.972264560276</v>
       </c>
       <c r="R34">
-        <v>1841.399760463783</v>
+        <v>32525.75038104248</v>
       </c>
       <c r="S34">
-        <v>0.01275627007928487</v>
+        <v>0.01854551033930116</v>
       </c>
       <c r="T34">
-        <v>0.01275627007928487</v>
+        <v>0.01854551033930116</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H35">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N35">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O35">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P35">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q35">
-        <v>2366.93537679928</v>
+        <v>3429.703409308292</v>
       </c>
       <c r="R35">
-        <v>2366.93537679928</v>
+        <v>30867.33068377463</v>
       </c>
       <c r="S35">
-        <v>0.01639691042376421</v>
+        <v>0.01759991371870765</v>
       </c>
       <c r="T35">
-        <v>0.01639691042376421</v>
+        <v>0.01759991371870765</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H36">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N36">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O36">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P36">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q36">
-        <v>3444.656611953295</v>
+        <v>5245.561928213862</v>
       </c>
       <c r="R36">
-        <v>3444.656611953295</v>
+        <v>47210.05735392476</v>
       </c>
       <c r="S36">
-        <v>0.02386280861761569</v>
+        <v>0.02691819855097069</v>
       </c>
       <c r="T36">
-        <v>0.02386280861761569</v>
+        <v>0.0269181985509707</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H37">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N37">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O37">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P37">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q37">
-        <v>275.1648010421827</v>
+        <v>421.564207505224</v>
       </c>
       <c r="R37">
-        <v>275.1648010421827</v>
+        <v>3794.077867547016</v>
       </c>
       <c r="S37">
-        <v>0.001906200160210029</v>
+        <v>0.00216330475074044</v>
       </c>
       <c r="T37">
-        <v>0.001906200160210029</v>
+        <v>0.00216330475074044</v>
       </c>
     </row>
   </sheetData>
